--- a/Feast data/DNDC_in_Nov8.xlsx
+++ b/Feast data/DNDC_in_Nov8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C78B62-158D-4479-ABE9-F78A482D29C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99102A94-C3CA-4B7B-824F-66A53BD8A16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="601" activeTab="1" xr2:uid="{883A2D82-BC89-4C73-8F2D-52BCDA082F90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="601" activeTab="5" xr2:uid="{883A2D82-BC89-4C73-8F2D-52BCDA082F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -438,30 +438,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,37 +481,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feeding"/>
-      <sheetName val="Land.footprint"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="J1">
-            <v>-0.15</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="J2">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>0.15</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -550,6 +519,37 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Feeding"/>
+      <sheetName val="Land.footprint"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="J1">
+            <v>-0.15</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="J2">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>0.15</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -870,14 +870,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
@@ -1323,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C383F0-0E8C-436A-B48E-1FA08ECF41F4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1354,19 +1354,19 @@
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="12" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -1425,7 +1425,7 @@
       <c r="B3">
         <v>0.06</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <f>B13</f>
         <v>1.238</v>
       </c>
@@ -1440,37 +1440,37 @@
       <c r="F3">
         <v>0.48699999999999999</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <f>B14</f>
         <v>1.72</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="16">
         <f>C14</f>
         <v>2</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="16">
         <f>H3/G3</f>
         <v>1.1627906976744187</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="17">
         <v>0.39500000000000002</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="15">
         <f>B15</f>
         <v>2.2109999999999999</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="16">
         <f>C15</f>
         <v>3</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="16">
         <f>L3/K3</f>
         <v>1.3568521031207599</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="17">
         <v>0.17</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="15">
         <f>B13</f>
         <v>1.238</v>
       </c>
@@ -1478,7 +1478,7 @@
         <f>C13</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="19">
         <f>P3/O3</f>
         <v>1.6155088852988693</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <f>B9</f>
         <v>5</v>
       </c>
@@ -1505,37 +1505,37 @@
       <c r="F4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <f>B9</f>
         <v>5</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="16">
         <f>C10</f>
         <v>15</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="16">
         <f>H4/G4</f>
         <v>3</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="15">
         <f>B9</f>
         <v>5</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <f>C11</f>
         <v>15</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="16">
         <f>L4/K4</f>
         <v>3</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="17">
         <v>0.13800000000000001</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="15">
         <f>B16</f>
         <v>2.16</v>
       </c>
@@ -1543,44 +1543,44 @@
         <f>C16</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="19">
         <f>P4/O4</f>
         <v>1.3888888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="C5" s="17"/>
+      <c r="C5" s="14"/>
       <c r="E5" s="5"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="C6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="8" t="s">
@@ -1594,10 +1594,10 @@
       <c r="A9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>10</v>
       </c>
       <c r="E9" t="s">
@@ -1608,10 +1608,10 @@
       <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>10.6</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>15</v>
       </c>
     </row>
@@ -1619,10 +1619,10 @@
       <c r="A11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>10.6</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>15</v>
       </c>
     </row>
@@ -1630,10 +1630,10 @@
       <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>10.6</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>15</v>
       </c>
     </row>
@@ -1641,11 +1641,11 @@
       <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="15">
-        <f>[2]FEAST_DMI_Data!$C$3/1000</f>
+      <c r="B13" s="12">
+        <f>[1]FEAST_DMI_Data!$C$3/1000</f>
         <v>1.238</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1653,11 +1653,11 @@
       <c r="A14" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="15">
-        <f>[2]FEAST_DMI_Data!$C$4/1000</f>
+      <c r="B14" s="12">
+        <f>[1]FEAST_DMI_Data!$C$4/1000</f>
         <v>1.72</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1665,11 +1665,11 @@
       <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="15">
-        <f>[2]FEAST_DMI_Data!$C$2/1000</f>
+      <c r="B15" s="12">
+        <f>[1]FEAST_DMI_Data!$C$2/1000</f>
         <v>2.2109999999999999</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1677,11 +1677,11 @@
       <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="15">
-        <f>[2]FEAST_DMI_Data!$C$5/1000</f>
+      <c r="B16" s="12">
+        <f>[1]FEAST_DMI_Data!$C$5/1000</f>
         <v>2.16</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1719,30 +1719,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="22"/>
       <c r="P1" t="s">
         <v>63</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <f>T13/T$16+[1]Land.footprint!$J$2</f>
+        <f>T13/T$16+[2]Land.footprint!$J$2</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="U10">
@@ -2357,7 +2357,7 @@
         <v>0.98</v>
       </c>
       <c r="T11">
-        <f>T14/T$16+[1]Land.footprint!$J$1</f>
+        <f>T14/T$16+[2]Land.footprint!$J$1</f>
         <v>0.83</v>
       </c>
       <c r="U11">
@@ -2365,7 +2365,7 @@
         <v>0.98</v>
       </c>
       <c r="V11">
-        <f>V14/V$16+[1]Land.footprint!$J$1</f>
+        <f>V14/V$16+[2]Land.footprint!$J$1</f>
         <v>0.52999999999999992</v>
       </c>
       <c r="W11">
@@ -2445,7 +2445,7 @@
         <v>0.02</v>
       </c>
       <c r="V12">
-        <f>V15/V$16+[1]Land.footprint!$J$3</f>
+        <f>V15/V$16+[2]Land.footprint!$J$3</f>
         <v>0.47</v>
       </c>
       <c r="W12">
@@ -2585,15 +2585,15 @@
         <v>0.49</v>
       </c>
       <c r="V14" s="4">
-        <f>$S14+[1]Land.footprint!$J$1</f>
+        <f>$S14+[2]Land.footprint!$J$1</f>
         <v>0.33999999999999997</v>
       </c>
       <c r="W14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.41649999999999998</v>
       </c>
       <c r="X14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.41649999999999998</v>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
         <v>0.01</v>
       </c>
       <c r="V15" s="4">
-        <f>$S15+[1]Land.footprint!$J$3</f>
+        <f>$S15+[2]Land.footprint!$J$3</f>
         <v>0.16</v>
       </c>
       <c r="W15" s="4">
@@ -3012,30 +3012,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="22"/>
       <c r="P1" t="s">
         <v>63</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1.8494605704910735E-2</v>
       </c>
       <c r="T10" s="10">
-        <f>T13/T$16+[1]Land.footprint!$J$2</f>
+        <f>T13/T$16+[2]Land.footprint!$J$2</f>
         <v>9.3494605704910735E-2</v>
       </c>
       <c r="U10" s="10">
@@ -3652,19 +3652,19 @@
         <v>0.8189405454531673</v>
       </c>
       <c r="T11" s="10">
-        <f>T14/T$16+[1]Land.footprint!$J$1</f>
+        <f>T14/T$16+[2]Land.footprint!$J$1</f>
         <v>0.66894054545316728</v>
       </c>
       <c r="U11" s="10">
-        <f>U14/U$16+[1]Land.footprint!$J$1</f>
+        <f>U14/U$16+[2]Land.footprint!$J$1</f>
         <v>0.64358420601583632</v>
       </c>
       <c r="V11" s="10">
-        <f>V14/V$16+[1]Land.footprint!$J$1</f>
+        <f>V14/V$16+[2]Land.footprint!$J$1</f>
         <v>0.66894054545316728</v>
       </c>
       <c r="W11" s="10">
-        <f>W14/W$16+[1]Land.footprint!$J$1</f>
+        <f>W14/W$16+[2]Land.footprint!$J$1</f>
         <v>0.64358420601583632</v>
       </c>
       <c r="X11" s="10">
@@ -3744,7 +3744,7 @@
         <v>0.18533112469385746</v>
       </c>
       <c r="V12" s="10">
-        <f>V15/V$16+[1]Land.footprint!$J$3</f>
+        <f>V15/V$16+[2]Land.footprint!$J$3</f>
         <v>0.31256484884192193</v>
       </c>
       <c r="W12" s="10">
@@ -3885,7 +3885,7 @@
         <v>0.16032525600343495</v>
       </c>
       <c r="U14" s="10">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.1362764676029197</v>
       </c>
       <c r="V14" s="10">
@@ -3893,11 +3893,11 @@
         <v>0.16032525600343495</v>
       </c>
       <c r="W14" s="10">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.1362764676029197</v>
       </c>
       <c r="X14" s="10">
-        <f>$S14*(1+[1]Land.footprint!$J$1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1+[2]Land.footprint!$J$1)</f>
         <v>0.11222767920240445</v>
       </c>
     </row>
@@ -4362,30 +4362,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="22"/>
       <c r="P1" t="s">
         <v>63</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>0.38358884268218485</v>
       </c>
       <c r="T10">
-        <f>T13/T$16+[1]Land.footprint!$J$2</f>
+        <f>T13/T$16+[2]Land.footprint!$J$2</f>
         <v>0.45858884268218486</v>
       </c>
       <c r="U10">
@@ -5002,7 +5002,7 @@
         <v>0.51985744545550194</v>
       </c>
       <c r="T11">
-        <f>T14/T$16+[1]Land.footprint!$J$1</f>
+        <f>T14/T$16+[2]Land.footprint!$J$1</f>
         <v>0.36985744545550192</v>
       </c>
       <c r="U11">
@@ -5010,7 +5010,7 @@
         <v>0.47925008757644944</v>
       </c>
       <c r="V11">
-        <f>V14/V$16+[1]Land.footprint!$J$1</f>
+        <f>V14/V$16+[2]Land.footprint!$J$1</f>
         <v>0.36985744545550192</v>
       </c>
       <c r="W11">
@@ -5094,7 +5094,7 @@
         <v>0.10471960154452109</v>
       </c>
       <c r="V12">
-        <f>V15/V$16+[1]Land.footprint!$J$3</f>
+        <f>V15/V$16+[2]Land.footprint!$J$3</f>
         <v>0.24655371186231317</v>
       </c>
       <c r="W12">
@@ -5235,7 +5235,7 @@
         <v>0.21171430628921126</v>
       </c>
       <c r="U14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.17995716034582956</v>
       </c>
       <c r="V14" s="4">
@@ -5243,11 +5243,11 @@
         <v>0.21171430628921126</v>
       </c>
       <c r="W14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.17995716034582956</v>
       </c>
       <c r="X14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1+[2]Land.footprint!$J$1)</f>
         <v>0.14820001440244787</v>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2117CE48-2110-49AB-BC7C-6B96535D599C}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -5709,30 +5709,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="22"/>
       <c r="P1" t="s">
         <v>63</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>0.11528268761032279</v>
       </c>
       <c r="T10">
-        <f>T13/T$16+[1]Land.footprint!$J$2</f>
+        <f>T13/T$16+[2]Land.footprint!$J$2</f>
         <v>0.1902826876103228</v>
       </c>
       <c r="U10">
@@ -6331,7 +6331,7 @@
         <v>0.73772440479746859</v>
       </c>
       <c r="T11">
-        <f>T14/T$16+[1]Land.footprint!$J$1</f>
+        <f>T14/T$16+[2]Land.footprint!$J$1</f>
         <v>0.58772440479746857</v>
       </c>
       <c r="U11">
@@ -6339,7 +6339,7 @@
         <v>0.70509006652636352</v>
       </c>
       <c r="V11">
-        <f>V14/V$16+[1]Land.footprint!$J$1</f>
+        <f>V14/V$16+[2]Land.footprint!$J$1</f>
         <v>0.58772440479746857</v>
       </c>
       <c r="W11">
@@ -6423,7 +6423,7 @@
         <v>0.16528289094393117</v>
       </c>
       <c r="V12">
-        <f>V15/V$16+[1]Land.footprint!$J$3</f>
+        <f>V15/V$16+[2]Land.footprint!$J$3</f>
         <v>0.29699290759220875</v>
       </c>
       <c r="W12">
@@ -6564,7 +6564,7 @@
         <v>0.22084494888213652</v>
       </c>
       <c r="U14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.18771820654981602</v>
       </c>
       <c r="V14" s="4">
@@ -6572,11 +6572,11 @@
         <v>0.22084494888213652</v>
       </c>
       <c r="W14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1)</f>
         <v>0.18771820654981602</v>
       </c>
       <c r="X14" s="4">
-        <f>$S14*(1+[1]Land.footprint!$J$1+[1]Land.footprint!$J$1)</f>
+        <f>$S14*(1+[2]Land.footprint!$J$1+[2]Land.footprint!$J$1)</f>
         <v>0.15459146421749556</v>
       </c>
     </row>
